--- a/OceanTech-ML.xlsx
+++ b/OceanTech-ML.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>NOME DO PRODUTO</t>
   </si>
@@ -38,6 +38,9 @@
     <t>VALOR ANUNCIADO</t>
   </si>
   <si>
+    <t>PREÇO ORIGINAL DO ANÚNCIO</t>
+  </si>
+  <si>
     <t>NICKNAME</t>
   </si>
   <si>
@@ -53,7 +56,7 @@
     <t>Removedor Amonia Ammonia Remover 500ml Ocean Tech</t>
   </si>
   <si>
-    <t>06/02/2024</t>
+    <t>23/03/2024</t>
   </si>
   <si>
     <t>https://produto.mercadolivre.com.br/MLB-1319202981-removedor-amonia-ammonia-remover-500ml-ocean-tech-_JM</t>
@@ -74,40 +77,79 @@
     <t>INATIVO</t>
   </si>
   <si>
+    <t>Removedor De Amônia Ocean Tech Ammonia Remover 500ml Aquário</t>
+  </si>
+  <si>
+    <t>https://www.mercadolivre.com.br/removedor-de-amnia-ocean-tech-ammonia-remover-500ml-aquario/p/MLB28740542</t>
+  </si>
+  <si>
+    <t>MLB-28740542</t>
+  </si>
+  <si>
+    <t>29,9</t>
+  </si>
+  <si>
+    <t>ZOOLANDPET</t>
+  </si>
+  <si>
+    <t>PLANCTON90 352</t>
+  </si>
+  <si>
+    <t>ELEANDRO</t>
+  </si>
+  <si>
     <t>Ammonia Remover Removedor De Amônia Aquário 500g Ocean Tech</t>
   </si>
   <si>
-    <t>https://produto.mercadolivre.com.br/MLB-3551329923-ammonia-remover-removedor-de-amnia-aquario-500g-ocean-tech-_JM</t>
-  </si>
-  <si>
-    <t>MLB-3551329923</t>
-  </si>
-  <si>
-    <t>28,5</t>
-  </si>
-  <si>
-    <t>ZUK SHOP</t>
-  </si>
-  <si>
-    <t>Removedor De Amônia Ocean Tech Ammonia Remover 500ml Aquário</t>
-  </si>
-  <si>
-    <t>https://www.mercadolivre.com.br/removedor-de-amnia-ocean-tech-ammonia-remover-500ml-aquario/p/MLB28740542</t>
-  </si>
-  <si>
-    <t>vedor-de-amnia</t>
-  </si>
-  <si>
-    <t>29,9</t>
-  </si>
-  <si>
-    <t>ZOOLANDPET</t>
-  </si>
-  <si>
-    <t>PLANCTON90 352</t>
-  </si>
-  <si>
-    <t>ELEANDRO</t>
+    <t>https://produto.mercadolivre.com.br/MLB-2689391953-ammonia-remover-removedor-de-amnia-aquario-500g-ocean-tech-_JM</t>
+  </si>
+  <si>
+    <t>MLB-2689391953</t>
+  </si>
+  <si>
+    <t>29,99</t>
+  </si>
+  <si>
+    <t>LIGAANIMALPET</t>
+  </si>
+  <si>
+    <t>FERNANDO S FUKUDA 127</t>
+  </si>
+  <si>
+    <t>CARLOS EDUARDO</t>
+  </si>
+  <si>
+    <t>AQUECEDOR TERMOSTATO WARNER X-5 X5 25W OCEAN TECH OCEANTECH</t>
+  </si>
+  <si>
+    <t>Kit Termostato Aquecedor X-5 25w 127v Oceantech + Termometro</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-3526994608-kit-termostato-aquecedor-x-5-25w-127v-oceantech-termometro-_JM</t>
+  </si>
+  <si>
+    <t>MLB-3526994608</t>
+  </si>
+  <si>
+    <t>85,26</t>
+  </si>
+  <si>
+    <t>87,0</t>
+  </si>
+  <si>
+    <t>LALIKACOMERCIALLALIKACOMERCI</t>
+  </si>
+  <si>
+    <t>PET'S MOGI 1734/1508/1639/1876/4221/4994/5131</t>
+  </si>
+  <si>
+    <t>Termostato C/ Aquecedor X-5 25w 220v Ocean Tech</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-3527059560-termostato-c-aquecedor-x-5-25w-220v-ocean-tech-_JM</t>
+  </si>
+  <si>
+    <t>MLB-3527059560</t>
   </si>
 </sst>
 </file>
@@ -152,7 +194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -192,99 +234,182 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="n">
         <v>30.0</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2"/>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
         <v>17</v>
       </c>
+      <c r="I2"/>
       <c r="J2" t="s">
         <v>18</v>
       </c>
       <c r="K2" t="s">
         <v>19</v>
       </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="n">
         <v>30.0</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s">
         <v>24</v>
       </c>
-      <c r="J4"/>
+      <c r="I4"/>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C5" t="n">
         <v>30.0</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" t="s">
         <v>27</v>
       </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" t="s">
-        <v>31</v>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
